--- a/palabras_clave.xlsx
+++ b/palabras_clave.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Proyectos_Python\Busqueda_noticias_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7CB378-A79D-47A7-8F41-B6D9CB76E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6C8AC-F0D0-4CB9-ACE6-B51FE344589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1A1745A-70CD-4975-AC7F-C4CF4F99B9D3}"/>
   </bookViews>
@@ -39,395 +39,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>palabra_clave</t>
   </si>
   <si>
-    <t>crimen</t>
-  </si>
-  <si>
-    <t>crimen organizado</t>
-  </si>
-  <si>
-    <t>disidencias</t>
-  </si>
-  <si>
-    <t>clan del golfo</t>
-  </si>
-  <si>
-    <t>paramilitar</t>
-  </si>
-  <si>
-    <t>paramilitares</t>
-  </si>
-  <si>
-    <t>guerrilla</t>
-  </si>
-  <si>
-    <t>grupo armado</t>
-  </si>
-  <si>
-    <t>grupos armados</t>
-  </si>
-  <si>
-    <t>desplazamiento forzado</t>
-  </si>
-  <si>
-    <t>desaparición forzada</t>
-  </si>
-  <si>
-    <t>homicidio</t>
-  </si>
-  <si>
-    <t>homicidio de líder</t>
-  </si>
-  <si>
-    <t>masacre</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>voladura de oleoducto</t>
-  </si>
-  <si>
-    <t>enfrentamiento</t>
-  </si>
-  <si>
-    <t>combate</t>
-  </si>
-  <si>
-    <t>bombardeo</t>
-  </si>
-  <si>
-    <t>desplazamiento</t>
-  </si>
-  <si>
-    <t>activación de artefacto explosivo</t>
-  </si>
-  <si>
-    <t>artefacto explosivo</t>
-  </si>
-  <si>
-    <t>explosivo</t>
-  </si>
-  <si>
-    <t>hostigamiento</t>
-  </si>
-  <si>
-    <t>ataque</t>
-  </si>
-  <si>
-    <t>ejercito</t>
-  </si>
-  <si>
-    <t>policia</t>
-  </si>
-  <si>
-    <t>policia nacional</t>
-  </si>
-  <si>
-    <t>francotirador</t>
-  </si>
-  <si>
-    <t>emboscada</t>
-  </si>
-  <si>
-    <t>explotación</t>
-  </si>
-  <si>
-    <t>terrorismo</t>
-  </si>
-  <si>
-    <t>paro armado</t>
-  </si>
-  <si>
-    <t>quema de vehiculo</t>
-  </si>
-  <si>
-    <t>reclutamiento</t>
-  </si>
-  <si>
-    <t>retén ilegal</t>
-  </si>
-  <si>
-    <t>confinamiento</t>
-  </si>
-  <si>
-    <t>incautación</t>
-  </si>
-  <si>
-    <t>material de guerra</t>
-  </si>
-  <si>
-    <t>guerrilleros</t>
-  </si>
-  <si>
-    <t>minería ilegal</t>
-  </si>
-  <si>
-    <t>arma de fuego</t>
-  </si>
-  <si>
-    <t>fusil</t>
-  </si>
-  <si>
-    <t>galil</t>
-  </si>
-  <si>
-    <t>changon</t>
-  </si>
-  <si>
-    <t>fusiles</t>
-  </si>
-  <si>
-    <t>pistola</t>
-  </si>
-  <si>
-    <t>autodefensa</t>
-  </si>
-  <si>
-    <t>gaitanista</t>
-  </si>
-  <si>
-    <t>agilas negras</t>
-  </si>
-  <si>
-    <t>milicias</t>
-  </si>
-  <si>
-    <t>asesinato</t>
-  </si>
-  <si>
-    <t>sicariato</t>
-  </si>
-  <si>
-    <t>feminicidio</t>
-  </si>
-  <si>
-    <t>extorsión</t>
-  </si>
-  <si>
-    <t>secuestro</t>
-  </si>
-  <si>
-    <t>robo</t>
-  </si>
-  <si>
-    <t>atraco</t>
-  </si>
-  <si>
-    <t>hurto</t>
-  </si>
-  <si>
-    <t>asalto</t>
-  </si>
-  <si>
-    <t>amedrentamiento</t>
-  </si>
-  <si>
-    <t>delito</t>
-  </si>
-  <si>
-    <t>violencia</t>
-  </si>
-  <si>
-    <t>tiroteo</t>
-  </si>
-  <si>
-    <t>agresión</t>
-  </si>
-  <si>
-    <t>capturado</t>
-  </si>
-  <si>
-    <t>detenido</t>
-  </si>
-  <si>
-    <t>judicialización</t>
-  </si>
-  <si>
-    <t>redada</t>
-  </si>
-  <si>
-    <t>operativo</t>
-  </si>
-  <si>
-    <t>pandilla</t>
-  </si>
-  <si>
-    <t>banda</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>cárcel</t>
-  </si>
-  <si>
-    <t>prisión</t>
-  </si>
-  <si>
-    <t>fuga</t>
-  </si>
-  <si>
-    <t>munición</t>
-  </si>
-  <si>
-    <t>narcotráfico</t>
-  </si>
-  <si>
-    <t>microtráfico</t>
-  </si>
-  <si>
-    <t>contrabando</t>
-  </si>
-  <si>
-    <t>fiscalía</t>
-  </si>
-  <si>
-    <t>policía</t>
-  </si>
-  <si>
-    <t>juez</t>
-  </si>
-  <si>
-    <t>condena</t>
-  </si>
-  <si>
-    <t>sentencia</t>
-  </si>
-  <si>
-    <t>proceso penal</t>
-  </si>
-  <si>
-    <t>investigación</t>
-  </si>
-  <si>
-    <t>allanamiento</t>
-  </si>
-  <si>
-    <t>querella</t>
-  </si>
-  <si>
-    <t>testigo</t>
-  </si>
-  <si>
-    <t>evidencia</t>
-  </si>
-  <si>
-    <t>disputa entre bandas</t>
-  </si>
-  <si>
-    <t>ajuste de cuentas</t>
-  </si>
-  <si>
-    <t>enfrentamiento armado</t>
-  </si>
-  <si>
-    <t>capturado en flagrancia</t>
-  </si>
-  <si>
-    <t>capturado por homicidio</t>
-  </si>
-  <si>
-    <t>víctima de sicariato</t>
-  </si>
-  <si>
-    <t>red de microtráfico</t>
-  </si>
-  <si>
-    <t>grupo armado ilegal</t>
-  </si>
-  <si>
-    <t>investigación penal</t>
-  </si>
-  <si>
-    <t>operativo policial</t>
-  </si>
-  <si>
-    <t>condenado por feminicidio</t>
-  </si>
-  <si>
-    <t>sentencia por abuso sexual</t>
-  </si>
-  <si>
-    <t>ataque armado</t>
-  </si>
-  <si>
-    <t>extorsión a comerciantes</t>
-  </si>
-  <si>
-    <t>zona de alto riesgo</t>
-  </si>
-  <si>
-    <t>control territorial</t>
-  </si>
-  <si>
-    <t>zona afectada por violencia</t>
-  </si>
-  <si>
-    <t>violencia intrafamiliar</t>
-  </si>
-  <si>
-    <t>asalto a mano armada</t>
-  </si>
-  <si>
-    <t>allanamiento de vivienda</t>
-  </si>
-  <si>
-    <t>interceptaciones ilegales</t>
-  </si>
-  <si>
-    <t>pandilla juvenil</t>
-  </si>
-  <si>
-    <t>red de trata de personas</t>
-  </si>
-  <si>
-    <t>violencia sexual</t>
-  </si>
-  <si>
-    <t>reclutamiento de menores</t>
-  </si>
-  <si>
-    <t>criminalidad urbana</t>
-  </si>
-  <si>
-    <t>captura por homicidio</t>
-  </si>
-  <si>
-    <t>captura en flagrancia</t>
-  </si>
-  <si>
-    <t>violencia armada</t>
-  </si>
-  <si>
-    <t>banda delincuencial</t>
-  </si>
-  <si>
-    <t>bandas delincuenciales</t>
-  </si>
-  <si>
-    <t>delincuente</t>
-  </si>
-  <si>
-    <t>amenaza con arma</t>
-  </si>
-  <si>
-    <t>arma letal</t>
-  </si>
-  <si>
-    <t>aguilas negras</t>
-  </si>
-  <si>
-    <t>combo delincuencial</t>
-  </si>
-  <si>
-    <t>fronteras invisibles</t>
-  </si>
-  <si>
     <t xml:space="preserve"> epl </t>
   </si>
   <si>
@@ -437,76 +56,562 @@
     <t xml:space="preserve"> eln </t>
   </si>
   <si>
-    <t xml:space="preserve"> cti </t>
-  </si>
-  <si>
-    <t>disputa territorial</t>
-  </si>
-  <si>
-    <t>disputa armada</t>
-  </si>
-  <si>
-    <t>conflicto armado</t>
-  </si>
-  <si>
-    <t>conflicto social violento</t>
-  </si>
-  <si>
-    <t>conflicto entre pandillas</t>
-  </si>
-  <si>
-    <t>denuncia por abuso</t>
-  </si>
-  <si>
-    <t>denuncia penal</t>
-  </si>
-  <si>
-    <t>denuncia por extorsión</t>
-  </si>
-  <si>
-    <t>audiencia de imputación</t>
-  </si>
-  <si>
-    <t>audiencia por homicidio</t>
-  </si>
-  <si>
-    <t>audiencia de juicio</t>
-  </si>
-  <si>
-    <t>captura de sicario</t>
-  </si>
-  <si>
-    <t>captura de criminal</t>
-  </si>
-  <si>
-    <t>captura por feminicidio</t>
-  </si>
-  <si>
-    <t>proceso judicial por violencia</t>
-  </si>
-  <si>
-    <t>proceso de extradición</t>
-  </si>
-  <si>
-    <t>amenaza de muerte</t>
-  </si>
-  <si>
-    <t>amenaza armada</t>
-  </si>
-  <si>
-    <t>amenaza a líderes sociales</t>
-  </si>
-  <si>
-    <t>cuerpo tecnico de investigacion</t>
-  </si>
-  <si>
-    <t>ejercito de liberacion nacional</t>
-  </si>
-  <si>
-    <t>fuerzas armadas revolucionarias de colombia</t>
-  </si>
-  <si>
-    <t>esperanza paz y libertad</t>
+    <t xml:space="preserve"> accidente por mina antipersonal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> activación de artefacto explosivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aguilas negras </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> allanamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> allanamiento de vivienda </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amenaza a la comunidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amenaza a líder </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amenaza a líder social </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amenaza a líderes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amenaza a líderes sociales </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amenaza a un líder </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amenaza armada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amenaza de muerte </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arma de fuego </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> artefacto explosivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> asalto a población </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque a población </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque armado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque clan del golfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque de población </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque disidencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque eln </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque estructura </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque farc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque fuerza publica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque grupo armado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque grupos armados </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ataque infraestructura </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> autodefensa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> autodefensas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banda criminal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> banda delincuencial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bandas criminales </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bandas delincuenciales </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bombardeo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bombardeo a campamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bombardeo aéreo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bombardeo con dron </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bombardeo con drones </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bombardeos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> captura </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> captura de cabecilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> captura de criminal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> captura de sicario </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> captura en flagrancia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> captura grupo armado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> captura por feminicidio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> captura por homicidio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> clan del golfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con banda </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con banda criminal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con bandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con clan del golfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con disidencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con el egc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con el eln </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con el epl </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con farc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con gao </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con gao-r </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con las disidencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con las farc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combate con segunda marquetalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combates </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> combo delincuencial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> confinamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflicto armado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflicto entre bandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflicto entre criminales </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conflicto entre pandillas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> control territorial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crimen organizado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> criminalidad urbana </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> daño de bienes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desaparición forzada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desmantelamiento de campamento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desplazamiento forzado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desplazamiento forzado intraurbano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desplazamiento intraurbano </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> destruccion de bienes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> destrucción de cultivos ilícitos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> destrucción de laboratorio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> desvinculación de menores </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disidencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disputa armada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disputa entre bandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disputa territorial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> egc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ejército </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ejercito de liberacion nacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ejército de liberacion nacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ejército gaitanista de colombia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> emboscada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enfrentamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enfrentamiento armado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enfrentamiento entre bandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> enfrentamientos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> esperanza, paz y libertad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> explosivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> explotación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> francotirador </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fuerza pública </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fuerzas armadas revolucionarias de colombia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gaitanista </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gao </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gao-r </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti clan del golfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti disidencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti egc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti eln </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti epl </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti farc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti gao </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti gao-r </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grafiti segunda marquetalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grupo armado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grupo armado ilegal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grupo criminal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grupos armados </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guerrilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> guerrilleros </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hostigamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incautación </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incautación de armas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incautación de drogas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incautación de estupefacientes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inclusión armada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interceptaciones ilegales </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> masacre </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> material de guerra </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> microtráfico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> milicia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> milicias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mina antipersonal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> minería ilegal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> munición </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> narcotráfico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> operativo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> operativo policial </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pandilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pandilla juvenil </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto clan del golfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto disidencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto egc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto eln </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto epl </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto farc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto gao </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto gao-r </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> panfleto segunda marquetalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paramilitar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paramilitares </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> paro armado </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> proceso judicial por violencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda clan del golfo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda disidencias </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda egc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda eln </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda epl </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda farc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda gao </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda gao-r </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> propaganda segunda marquetalia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quema de vehiculo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> quema de vehículo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reclutamiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reclutamiento de menores </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> red de microtráfico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> red de trata de personas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> redada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rescate de secuestrados </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> retén ilegal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> secuestro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> terrorismo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tiroteo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> violencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> violencia armada </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> violencia intrafamiliar </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> violencia sexual </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voladura de oleoducto </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voladura de puentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voladura de torres </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voladura de torres de energía </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zona afectada por violencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zona de alto riesgo </t>
   </si>
 </sst>
 </file>
@@ -878,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3C9CE-3ECE-48C9-BC54-2580F7F84142}">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158:A164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,7 +998,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -904,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,1295 +1017,1503 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B154" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B156" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B157" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B158" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B159" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B160" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>161</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>162</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>155</v>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>164</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>165</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>166</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>167</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>168</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>169</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>170</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>171</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>172</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>173</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>174</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>175</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>176</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>177</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>178</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>179</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>180</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>181</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>182</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>183</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>184</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>185</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>186</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/palabras_clave.xlsx
+++ b/palabras_clave.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C6C8AC-F0D0-4CB9-ACE6-B51FE344589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC8EE4F-A397-46B8-888C-60A725053D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1A1745A-70CD-4975-AC7F-C4CF4F99B9D3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="palabras_clave" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">palabras_clave!$A$1:$B$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">palabras_clave!$A$1:$B$154</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>palabra_clave</t>
   </si>
@@ -68,9 +68,6 @@
     <t xml:space="preserve"> allanamiento </t>
   </si>
   <si>
-    <t xml:space="preserve"> allanamiento de vivienda </t>
-  </si>
-  <si>
     <t xml:space="preserve"> amenaza a la comunidad </t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t xml:space="preserve"> explosivo </t>
   </si>
   <si>
-    <t xml:space="preserve"> explotación </t>
-  </si>
-  <si>
     <t xml:space="preserve"> francotirador </t>
   </si>
   <si>
@@ -479,9 +473,6 @@
     <t xml:space="preserve"> pandilla </t>
   </si>
   <si>
-    <t xml:space="preserve"> pandilla juvenil </t>
-  </si>
-  <si>
     <t xml:space="preserve"> panfleto clan del golfo </t>
   </si>
   <si>
@@ -518,9 +509,6 @@
     <t xml:space="preserve"> paro armado </t>
   </si>
   <si>
-    <t xml:space="preserve"> proceso judicial por violencia </t>
-  </si>
-  <si>
     <t xml:space="preserve"> propaganda clan del golfo </t>
   </si>
   <si>
@@ -560,12 +548,6 @@
     <t xml:space="preserve"> reclutamiento de menores </t>
   </si>
   <si>
-    <t xml:space="preserve"> red de microtráfico </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> red de trata de personas </t>
-  </si>
-  <si>
     <t xml:space="preserve"> redada </t>
   </si>
   <si>
@@ -588,9 +570,6 @@
   </si>
   <si>
     <t xml:space="preserve"> violencia armada </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> violencia intrafamiliar </t>
   </si>
   <si>
     <t xml:space="preserve"> violencia sexual </t>
@@ -647,8 +626,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3C9CE-3ECE-48C9-BC54-2580F7F84142}">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B190"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,7 +1018,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1046,7 +1026,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1054,7 +1034,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1062,7 +1042,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1070,7 +1050,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1078,7 +1058,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1086,7 +1066,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1094,7 +1074,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1102,15 +1082,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1118,7 +1098,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1126,7 +1106,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1134,7 +1114,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1142,7 +1122,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1150,7 +1130,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -1158,7 +1138,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1166,7 +1146,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1174,7 +1154,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1182,7 +1162,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -1190,7 +1170,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -1198,7 +1178,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -1206,7 +1186,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -1230,7 +1210,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1238,7 +1218,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -1246,7 +1226,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1254,7 +1234,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -1262,7 +1242,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -1270,7 +1250,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
@@ -1278,7 +1258,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
@@ -1286,7 +1266,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -1294,7 +1274,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
@@ -1302,7 +1282,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -1310,7 +1290,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -1318,7 +1298,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -1326,7 +1306,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
@@ -1334,7 +1314,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -1342,7 +1322,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
@@ -1350,7 +1330,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
@@ -1358,7 +1338,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
@@ -1366,7 +1346,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -1374,7 +1354,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -1382,7 +1362,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
@@ -1390,7 +1370,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
@@ -1398,7 +1378,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -1406,7 +1386,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
@@ -1414,7 +1394,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -1422,7 +1402,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -1430,7 +1410,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
@@ -1438,7 +1418,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -1446,7 +1426,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -1454,7 +1434,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
@@ -1462,7 +1442,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -1470,7 +1450,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -1478,7 +1458,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -1486,7 +1466,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -1494,7 +1474,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
@@ -1502,7 +1482,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
@@ -1510,7 +1490,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
@@ -1518,7 +1498,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -1526,7 +1506,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
@@ -1534,7 +1514,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
@@ -1542,7 +1522,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
@@ -1550,7 +1530,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -1558,7 +1538,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
@@ -1566,7 +1546,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -1574,7 +1554,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
@@ -1582,7 +1562,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -1590,7 +1570,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
@@ -1598,7 +1578,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
@@ -1606,7 +1586,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
@@ -1614,7 +1594,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
@@ -1622,7 +1602,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
@@ -1630,7 +1610,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
@@ -1638,7 +1618,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
@@ -1646,7 +1626,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B82" t="s">
         <v>85</v>
@@ -1654,7 +1634,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B83" t="s">
         <v>86</v>
@@ -1662,7 +1642,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
@@ -1670,7 +1650,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
         <v>88</v>
@@ -1678,7 +1658,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
         <v>89</v>
@@ -1686,7 +1666,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>90</v>
@@ -1694,7 +1674,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>91</v>
@@ -1702,7 +1682,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>92</v>
@@ -1710,7 +1690,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
@@ -1718,7 +1698,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
@@ -1726,7 +1706,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
@@ -1734,7 +1714,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
@@ -1745,20 +1725,20 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
         <v>98</v>
@@ -1766,7 +1746,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -1774,7 +1754,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
         <v>100</v>
@@ -1782,7 +1762,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B99" t="s">
         <v>101</v>
@@ -1790,23 +1770,23 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -1814,31 +1794,31 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
@@ -1846,7 +1826,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
@@ -1854,7 +1834,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
@@ -1862,7 +1842,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
@@ -1870,7 +1850,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
@@ -1878,7 +1858,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
@@ -1886,7 +1866,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
@@ -1894,7 +1874,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
@@ -1902,7 +1882,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
@@ -1910,7 +1890,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
@@ -1918,7 +1898,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
@@ -1926,7 +1906,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
@@ -1934,7 +1914,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
@@ -1942,7 +1922,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
@@ -1950,7 +1930,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
@@ -1958,7 +1938,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
@@ -1966,7 +1946,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
@@ -1974,7 +1954,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -1982,7 +1962,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
@@ -1990,7 +1970,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
@@ -1998,7 +1978,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
@@ -2006,7 +1986,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
@@ -2014,7 +1994,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
@@ -2022,7 +2002,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
@@ -2030,7 +2010,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
@@ -2038,7 +2018,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
@@ -2046,7 +2026,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
@@ -2054,7 +2034,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
@@ -2062,7 +2042,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
@@ -2070,7 +2050,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
@@ -2078,7 +2058,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
@@ -2086,7 +2066,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
@@ -2094,7 +2074,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
@@ -2102,7 +2082,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
@@ -2110,7 +2090,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
@@ -2118,7 +2098,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
@@ -2126,7 +2106,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
@@ -2134,7 +2114,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
@@ -2142,7 +2122,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
@@ -2150,7 +2130,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
@@ -2158,7 +2138,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
@@ -2166,7 +2146,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
@@ -2174,7 +2154,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
@@ -2182,7 +2162,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
@@ -2190,7 +2170,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
@@ -2198,7 +2178,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
@@ -2206,7 +2186,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
@@ -2214,7 +2194,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
@@ -2222,7 +2202,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
@@ -2230,7 +2210,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
@@ -2238,7 +2218,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
@@ -2246,7 +2226,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
@@ -2254,7 +2234,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
@@ -2262,7 +2242,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
@@ -2270,7 +2250,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
@@ -2278,7 +2258,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
@@ -2286,7 +2266,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
@@ -2294,7 +2274,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
@@ -2302,7 +2282,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
@@ -2310,7 +2290,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
@@ -2318,7 +2298,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
@@ -2326,7 +2306,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
@@ -2334,7 +2314,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
@@ -2342,7 +2322,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
@@ -2350,7 +2330,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
@@ -2358,7 +2338,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
@@ -2366,7 +2346,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B172" t="s">
         <v>172</v>
@@ -2374,7 +2354,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
@@ -2382,7 +2362,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
@@ -2390,7 +2370,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
@@ -2398,7 +2378,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
@@ -2406,7 +2386,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
@@ -2414,7 +2394,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
@@ -2422,7 +2402,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
@@ -2430,7 +2410,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
@@ -2438,7 +2418,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
@@ -2446,7 +2426,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B182" t="s">
         <v>182</v>
@@ -2454,70 +2434,14 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>180</v>
-      </c>
-      <c r="B184" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>181</v>
-      </c>
-      <c r="B185" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>182</v>
-      </c>
-      <c r="B186" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>183</v>
-      </c>
-      <c r="B187" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>184</v>
-      </c>
-      <c r="B188" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>185</v>
-      </c>
-      <c r="B189" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>186</v>
-      </c>
-      <c r="B190" t="s">
-        <v>190</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B157" xr:uid="{7CB3C9CE-3ECE-48C9-BC54-2580F7F84142}"/>
+  <autoFilter ref="A1:B154" xr:uid="{7CB3C9CE-3ECE-48C9-BC54-2580F7F84142}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>